--- a/Matriz de Rastreabilidade dos Requisitos.xlsx
+++ b/Matriz de Rastreabilidade dos Requisitos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\willi\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palli\Documents\GitHub\Rastreabilidade_Produtor_Agricola\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B06F5D-B4B2-466C-B226-FB1A1635028D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D89F8F-EA2B-4961-9816-230B4AB5A3B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,6 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <webPublishing codePage="1252"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>Comentários</t>
   </si>
@@ -165,6 +164,9 @@
   </si>
   <si>
     <t>Realizar o cadastro de um novo lote com as seguintes informações: Código, data, qual grupo o plantio pertence e qual é o alimento.</t>
+  </si>
+  <si>
+    <t>Cati</t>
   </si>
 </sst>
 </file>
@@ -779,7 +781,7 @@
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -827,6 +829,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="Accent1 - 20%" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1221,7 +1224,7 @@
   <dimension ref="B2:Q30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,7 +1297,9 @@
       <c r="H3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="J3" s="19" t="s">
         <v>22</v>
       </c>
@@ -1319,7 +1324,9 @@
       <c r="H4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="J4" s="19" t="s">
         <v>22</v>
       </c>
@@ -1344,7 +1351,9 @@
       <c r="H5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="I5" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="J5" s="22" t="s">
         <v>22</v>
       </c>
@@ -1369,7 +1378,9 @@
       <c r="H6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="J6" s="19" t="s">
         <v>22</v>
       </c>
@@ -1395,12 +1406,15 @@
       <c r="H7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="19"/>
+      <c r="I7" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="J7" s="19" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="2:17" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B8" s="20">
@@ -1420,7 +1434,9 @@
       <c r="H8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="19"/>
+      <c r="I8" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="J8" s="19" t="s">
         <v>22</v>
       </c>
